--- a/Urenverantwoording sept 2020 MD.xlsx
+++ b/Urenverantwoording sept 2020 MD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianmac/Documents/school/ma/bewijzenmap/periode 1.1/StageKlantenOpdracht/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E604380-9924-C049-80F0-AF32EF6A603B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3975017-2CAF-7C41-944D-2B80B7D7B8E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registratie BPV-uren" sheetId="4" r:id="rId1"/>
@@ -1185,7 +1185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1514,6 +1514,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1521,6 +1598,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1535,6 +1624,27 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1589,116 +1699,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2074,14 +2075,16 @@
   </sheetPr>
   <dimension ref="A1:U74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="104" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="Y45" sqref="Y45:Y46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="5.6640625" customWidth="1"/>
+    <col min="2" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="8" width="5.6640625" customWidth="1"/>
     <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="17" width="5.6640625" customWidth="1"/>
     <col min="18" max="18" width="13.6640625" customWidth="1"/>
@@ -2090,116 +2093,116 @@
     <row r="1" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="K2" s="24"/>
-      <c r="L2" s="155" t="s">
+      <c r="L2" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="155"/>
-      <c r="N2" s="161" t="s">
+      <c r="M2" s="156"/>
+      <c r="N2" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="162"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="168"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="K3" s="25"/>
-      <c r="L3" s="160" t="s">
+      <c r="L3" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="160"/>
-      <c r="N3" s="163" t="s">
+      <c r="M3" s="163"/>
+      <c r="N3" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="164"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="170"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="K4" s="25"/>
-      <c r="L4" s="160" t="s">
+      <c r="L4" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="160"/>
-      <c r="N4" s="163" t="s">
+      <c r="M4" s="163"/>
+      <c r="N4" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="163"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="164"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="170"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="K5" s="25"/>
-      <c r="L5" s="160" t="s">
+      <c r="L5" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="160"/>
-      <c r="N5" s="163" t="s">
+      <c r="M5" s="163"/>
+      <c r="N5" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="163"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="164"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="170"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="K6" s="25"/>
-      <c r="L6" s="160" t="s">
+      <c r="L6" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="160"/>
-      <c r="N6" s="165" t="s">
+      <c r="M6" s="163"/>
+      <c r="N6" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="164"/>
+      <c r="O6" s="169"/>
+      <c r="P6" s="169"/>
+      <c r="Q6" s="170"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="K7" s="156" t="s">
+      <c r="K7" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="157"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="166" t="s">
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="172" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="167"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="173"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="K8" s="158" t="s">
+      <c r="K8" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="139" t="s">
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="140"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="141"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="176"/>
     </row>
     <row r="9" spans="1:17" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="143"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="144"/>
+      <c r="B10" s="178"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="178"/>
+      <c r="M10" s="178"/>
+      <c r="N10" s="178"/>
+      <c r="O10" s="178"/>
+      <c r="P10" s="178"/>
+      <c r="Q10" s="179"/>
     </row>
     <row r="11" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
@@ -2221,189 +2224,189 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="148" t="s">
+      <c r="A12" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="152">
+      <c r="B12" s="184"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="187">
         <v>27237</v>
       </c>
-      <c r="E12" s="152"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="154"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="189"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="145" t="s">
+      <c r="J12" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="146"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="152"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="154"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="182"/>
+      <c r="M12" s="187"/>
+      <c r="N12" s="187"/>
+      <c r="O12" s="187"/>
+      <c r="P12" s="188"/>
+      <c r="Q12" s="189"/>
     </row>
     <row r="13" spans="1:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="150" t="s">
+      <c r="A13" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="151"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="136" t="s">
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="138"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="166"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="133" t="s">
+      <c r="J13" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="134"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="137"/>
-      <c r="Q13" s="138"/>
+      <c r="K13" s="158"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="164"/>
+      <c r="P13" s="165"/>
+      <c r="Q13" s="166"/>
     </row>
     <row r="14" spans="1:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="133" t="s">
+      <c r="A14" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="136" t="s">
+      <c r="B14" s="158"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="164" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="138"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="166"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="133" t="s">
+      <c r="J14" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="134"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="138"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="164"/>
+      <c r="P14" s="165"/>
+      <c r="Q14" s="166"/>
     </row>
     <row r="15" spans="1:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="133" t="s">
+      <c r="A15" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="136" t="s">
+      <c r="B15" s="158"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="138"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="166"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="133" t="s">
+      <c r="J15" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="134"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="138"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="165"/>
+      <c r="Q15" s="166"/>
     </row>
     <row r="16" spans="1:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="133" t="s">
+      <c r="A16" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="136" t="s">
+      <c r="B16" s="158"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="138"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="166"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="133" t="s">
+      <c r="J16" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="134"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="138"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="159"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="165"/>
+      <c r="Q16" s="166"/>
     </row>
     <row r="17" spans="1:21" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="133" t="s">
+      <c r="A17" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="134"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="136">
+      <c r="B17" s="158"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="164">
         <v>621305151</v>
       </c>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="166"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="133" t="s">
+      <c r="J17" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="134"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="138"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="159"/>
+      <c r="M17" s="164"/>
+      <c r="N17" s="164"/>
+      <c r="O17" s="164"/>
+      <c r="P17" s="165"/>
+      <c r="Q17" s="166"/>
     </row>
     <row r="18" spans="1:21" ht="14" x14ac:dyDescent="0.15">
-      <c r="A18" s="175" t="s">
+      <c r="A18" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="176"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="189" t="s">
+      <c r="B18" s="150"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="172"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="144"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="173" t="s">
+      <c r="J18" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="174"/>
-      <c r="L18" s="174"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="170"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="171"/>
-      <c r="Q18" s="172"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="143"/>
+      <c r="Q18" s="144"/>
     </row>
     <row r="19" spans="1:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="157"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="181"/>
+      <c r="A19" s="148"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -2434,31 +2437,31 @@
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:21" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="168" t="s">
+      <c r="A21" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="169"/>
-      <c r="C21" s="169"/>
-      <c r="D21" s="178" t="s">
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="180"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="154"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="168" t="s">
+      <c r="J21" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="169"/>
-      <c r="L21" s="169"/>
-      <c r="M21" s="178" t="s">
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="N21" s="178"/>
-      <c r="O21" s="178"/>
-      <c r="P21" s="179"/>
-      <c r="Q21" s="180"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="152"/>
+      <c r="P21" s="153"/>
+      <c r="Q21" s="154"/>
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I22" s="13"/>
@@ -2667,10 +2670,18 @@
       <c r="A30" s="50">
         <v>37</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
+      <c r="B30" s="46">
+        <v>6</v>
+      </c>
+      <c r="C30" s="46">
+        <v>6</v>
+      </c>
+      <c r="D30" s="46">
+        <v>6</v>
+      </c>
+      <c r="E30" s="46">
+        <v>6</v>
+      </c>
       <c r="F30" s="46" t="s">
         <v>58</v>
       </c>
@@ -2678,7 +2689,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="122">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J30" s="132" t="s">
         <v>64</v>
@@ -2696,10 +2707,18 @@
       <c r="A31" s="51">
         <v>38</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="B31" s="18">
+        <v>6</v>
+      </c>
+      <c r="C31" s="18">
+        <v>6</v>
+      </c>
+      <c r="D31" s="18">
+        <v>6</v>
+      </c>
+      <c r="E31" s="18">
+        <v>6</v>
+      </c>
       <c r="F31" s="18" t="s">
         <v>58</v>
       </c>
@@ -2707,7 +2726,7 @@
       <c r="H31" s="18"/>
       <c r="I31" s="101">
         <f>SUM(B31:H31)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J31" s="118"/>
       <c r="K31" s="123" t="s">
@@ -2725,10 +2744,18 @@
       <c r="A32" s="51">
         <v>39</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="B32" s="18">
+        <v>6</v>
+      </c>
+      <c r="C32" s="18">
+        <v>6</v>
+      </c>
+      <c r="D32" s="18">
+        <v>6</v>
+      </c>
+      <c r="E32" s="18">
+        <v>6</v>
+      </c>
       <c r="F32" s="18" t="s">
         <v>58</v>
       </c>
@@ -2736,7 +2763,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="101">
         <f t="shared" ref="I32:I37" si="1">SUM(B32:H32)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J32" s="115"/>
       <c r="K32" s="121"/>
@@ -2752,10 +2779,18 @@
       <c r="A33" s="51">
         <v>40</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="B33" s="18">
+        <v>6</v>
+      </c>
+      <c r="C33" s="18">
+        <v>6</v>
+      </c>
+      <c r="D33" s="18">
+        <v>6</v>
+      </c>
+      <c r="E33" s="18">
+        <v>6</v>
+      </c>
       <c r="F33" s="18" t="s">
         <v>58</v>
       </c>
@@ -2763,7 +2798,7 @@
       <c r="H33" s="18"/>
       <c r="I33" s="101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J33" s="118"/>
       <c r="K33" s="48"/>
@@ -2779,10 +2814,18 @@
       <c r="A34" s="51">
         <v>41</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
+      <c r="B34" s="18">
+        <v>6</v>
+      </c>
+      <c r="C34" s="18">
+        <v>6</v>
+      </c>
+      <c r="D34" s="18">
+        <v>6</v>
+      </c>
+      <c r="E34" s="18">
+        <v>6</v>
+      </c>
       <c r="F34" s="18" t="s">
         <v>58</v>
       </c>
@@ -2790,7 +2833,7 @@
       <c r="H34" s="18"/>
       <c r="I34" s="101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J34" s="118"/>
       <c r="K34" s="48"/>
@@ -2807,10 +2850,18 @@
       <c r="A35" s="51">
         <v>42</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+      <c r="B35" s="18">
+        <v>6</v>
+      </c>
+      <c r="C35" s="18">
+        <v>6</v>
+      </c>
+      <c r="D35" s="18">
+        <v>6</v>
+      </c>
+      <c r="E35" s="18">
+        <v>6</v>
+      </c>
       <c r="F35" s="18" t="s">
         <v>58</v>
       </c>
@@ -2818,7 +2869,7 @@
       <c r="H35" s="18"/>
       <c r="I35" s="101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J35" s="118"/>
       <c r="K35" s="48"/>
@@ -2835,16 +2886,24 @@
       <c r="A36" s="50">
         <v>43</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
+      <c r="B36" s="46">
+        <v>6</v>
+      </c>
+      <c r="C36" s="46">
+        <v>6</v>
+      </c>
+      <c r="D36" s="46">
+        <v>6</v>
+      </c>
+      <c r="E36" s="46">
+        <v>6</v>
+      </c>
       <c r="F36" s="46"/>
       <c r="G36" s="46"/>
       <c r="H36" s="46"/>
       <c r="I36" s="101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J36" s="118"/>
       <c r="K36" s="48"/>
@@ -2860,10 +2919,18 @@
       <c r="A37" s="97">
         <v>44</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
+      <c r="B37" s="49">
+        <v>6</v>
+      </c>
+      <c r="C37" s="49">
+        <v>6</v>
+      </c>
+      <c r="D37" s="49">
+        <v>6</v>
+      </c>
+      <c r="E37" s="49">
+        <v>6</v>
+      </c>
       <c r="F37" s="49" t="s">
         <v>58</v>
       </c>
@@ -2871,7 +2938,7 @@
       <c r="H37" s="49"/>
       <c r="I37" s="101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J37" s="118"/>
       <c r="K37" s="48"/>
@@ -2884,40 +2951,48 @@
       <c r="R37" s="127"/>
     </row>
     <row r="38" spans="1:19" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="184" t="s">
+      <c r="A38" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="185"/>
-      <c r="C38" s="185"/>
-      <c r="D38" s="185"/>
-      <c r="E38" s="185"/>
-      <c r="F38" s="185"/>
-      <c r="G38" s="185"/>
-      <c r="H38" s="186"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="137"/>
       <c r="I38" s="111">
         <f>SUM(B24:H37)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="182" t="s">
+        <v>192</v>
+      </c>
+      <c r="J38" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="K38" s="183"/>
-      <c r="L38" s="183"/>
-      <c r="M38" s="183"/>
-      <c r="N38" s="183"/>
-      <c r="O38" s="183"/>
-      <c r="P38" s="183"/>
-      <c r="Q38" s="183"/>
-      <c r="R38" s="183"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
+      <c r="N38" s="134"/>
+      <c r="O38" s="134"/>
+      <c r="P38" s="134"/>
+      <c r="Q38" s="134"/>
+      <c r="R38" s="134"/>
     </row>
     <row r="39" spans="1:19" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="98">
         <v>45</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
+      <c r="B39" s="36">
+        <v>6</v>
+      </c>
+      <c r="C39" s="36">
+        <v>6</v>
+      </c>
+      <c r="D39" s="36">
+        <v>6</v>
+      </c>
+      <c r="E39" s="36">
+        <v>6</v>
+      </c>
       <c r="F39" s="36" t="s">
         <v>58</v>
       </c>
@@ -2925,7 +3000,7 @@
       <c r="H39" s="36"/>
       <c r="I39" s="102">
         <f>SUM(B39:H39)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J39" s="118"/>
       <c r="K39" s="48"/>
@@ -2941,10 +3016,18 @@
       <c r="A40" s="54">
         <v>46</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
+      <c r="B40" s="18">
+        <v>6</v>
+      </c>
+      <c r="C40" s="18">
+        <v>6</v>
+      </c>
+      <c r="D40" s="18">
+        <v>6</v>
+      </c>
+      <c r="E40" s="18">
+        <v>6</v>
+      </c>
       <c r="F40" s="18" t="s">
         <v>58</v>
       </c>
@@ -2952,7 +3035,7 @@
       <c r="H40" s="18"/>
       <c r="I40" s="102">
         <f t="shared" ref="I40:I45" si="2">SUM(B40:H40)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J40" s="118"/>
       <c r="K40" s="48"/>
@@ -2968,10 +3051,18 @@
       <c r="A41" s="51">
         <v>47</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
+      <c r="B41" s="18">
+        <v>6</v>
+      </c>
+      <c r="C41" s="18">
+        <v>6</v>
+      </c>
+      <c r="D41" s="18">
+        <v>6</v>
+      </c>
+      <c r="E41" s="18">
+        <v>6</v>
+      </c>
       <c r="F41" s="18" t="s">
         <v>58</v>
       </c>
@@ -2979,7 +3070,7 @@
       <c r="H41" s="18"/>
       <c r="I41" s="102">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J41" s="118"/>
       <c r="K41" s="48"/>
@@ -2995,10 +3086,18 @@
       <c r="A42" s="51">
         <v>48</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
+      <c r="B42" s="18">
+        <v>6</v>
+      </c>
+      <c r="C42" s="18">
+        <v>6</v>
+      </c>
+      <c r="D42" s="18">
+        <v>6</v>
+      </c>
+      <c r="E42" s="18">
+        <v>6</v>
+      </c>
       <c r="F42" s="18" t="s">
         <v>58</v>
       </c>
@@ -3006,7 +3105,7 @@
       <c r="H42" s="18"/>
       <c r="I42" s="102">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J42" s="118"/>
       <c r="K42" s="48"/>
@@ -3022,10 +3121,18 @@
       <c r="A43" s="51">
         <v>49</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
+      <c r="B43" s="18">
+        <v>6</v>
+      </c>
+      <c r="C43" s="18">
+        <v>6</v>
+      </c>
+      <c r="D43" s="18">
+        <v>6</v>
+      </c>
+      <c r="E43" s="18">
+        <v>6</v>
+      </c>
       <c r="F43" s="18" t="s">
         <v>58</v>
       </c>
@@ -3033,7 +3140,7 @@
       <c r="H43" s="18"/>
       <c r="I43" s="102">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J43" s="118"/>
       <c r="K43" s="48"/>
@@ -3049,10 +3156,18 @@
       <c r="A44" s="51">
         <v>50</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
+      <c r="B44" s="18">
+        <v>6</v>
+      </c>
+      <c r="C44" s="18">
+        <v>6</v>
+      </c>
+      <c r="D44" s="18">
+        <v>6</v>
+      </c>
+      <c r="E44" s="18">
+        <v>6</v>
+      </c>
       <c r="F44" s="18" t="s">
         <v>58</v>
       </c>
@@ -3060,7 +3175,7 @@
       <c r="H44" s="18"/>
       <c r="I44" s="102">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J44" s="115"/>
       <c r="K44" s="116"/>
@@ -3068,8 +3183,8 @@
       <c r="M44" s="116"/>
       <c r="N44" s="116"/>
       <c r="O44" s="116"/>
-      <c r="P44" s="187"/>
-      <c r="Q44" s="188"/>
+      <c r="P44" s="138"/>
+      <c r="Q44" s="139"/>
       <c r="R44" s="124"/>
     </row>
     <row r="45" spans="1:19" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3098,31 +3213,31 @@
       <c r="R45" s="21"/>
     </row>
     <row r="46" spans="1:19" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="184" t="s">
+      <c r="A46" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="185"/>
-      <c r="C46" s="185"/>
-      <c r="D46" s="185"/>
-      <c r="E46" s="185"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="185"/>
-      <c r="H46" s="186"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="137"/>
       <c r="I46" s="111">
         <f>SUM(B39:H45)+I38</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="182" t="s">
+        <v>336</v>
+      </c>
+      <c r="J46" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="K46" s="183"/>
-      <c r="L46" s="183"/>
-      <c r="M46" s="183"/>
-      <c r="N46" s="183"/>
-      <c r="O46" s="183"/>
-      <c r="P46" s="183"/>
-      <c r="Q46" s="183"/>
-      <c r="R46" s="183"/>
+      <c r="K46" s="134"/>
+      <c r="L46" s="134"/>
+      <c r="M46" s="134"/>
+      <c r="N46" s="134"/>
+      <c r="O46" s="134"/>
+      <c r="P46" s="134"/>
+      <c r="Q46" s="134"/>
+      <c r="R46" s="134"/>
     </row>
     <row r="47" spans="1:19" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="100">
@@ -3188,10 +3303,18 @@
       <c r="A49" s="51">
         <v>2</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
+      <c r="B49" s="18">
+        <v>6</v>
+      </c>
+      <c r="C49" s="190">
+        <v>6</v>
+      </c>
+      <c r="D49" s="18">
+        <v>6</v>
+      </c>
+      <c r="E49" s="18">
+        <v>6</v>
+      </c>
       <c r="F49" s="18" t="s">
         <v>58</v>
       </c>
@@ -3199,7 +3322,7 @@
       <c r="H49" s="18"/>
       <c r="I49" s="103">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J49" s="118"/>
       <c r="K49" s="48"/>
@@ -3215,10 +3338,18 @@
       <c r="A50" s="51">
         <v>3</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
+      <c r="B50" s="18">
+        <v>6</v>
+      </c>
+      <c r="C50" s="18">
+        <v>6</v>
+      </c>
+      <c r="D50" s="18">
+        <v>6</v>
+      </c>
+      <c r="E50" s="18">
+        <v>6</v>
+      </c>
       <c r="F50" s="18" t="s">
         <v>58</v>
       </c>
@@ -3226,7 +3357,7 @@
       <c r="H50" s="18"/>
       <c r="I50" s="103">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J50" s="118"/>
       <c r="K50" s="48"/>
@@ -3487,7 +3618,7 @@
       <c r="H61" s="108"/>
       <c r="I61" s="114">
         <f>SUM(B47:H57)+I46</f>
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="J61" s="63"/>
       <c r="K61" s="110"/>
@@ -3637,21 +3768,29 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="54">
-    <mergeCell ref="J38:R38"/>
-    <mergeCell ref="J46:R46"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="A14:C14"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="K7:M7"/>
@@ -3668,29 +3807,21 @@
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J38:R38"/>
+    <mergeCell ref="J46:R46"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="P44:Q44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -4012,6 +4143,63 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <TaxKeywordTaxHTField xmlns="21d30a20-6695-4c0a-abce-685f7bb7356c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <lc9927c322dd484da9a3b8553002827f xmlns="21d30a20-6695-4c0a-abce-685f7bb7356c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Mediacollege Amsterdam</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">14d3bb20-eef4-4296-8a9a-db1598a3da7e</TermId>
+        </TermInfo>
+      </Terms>
+    </lc9927c322dd484da9a3b8553002827f>
+    <hf5bb95e9b6b45da8c25870f21700653 xmlns="21d30a20-6695-4c0a-abce-685f7bb7356c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Software</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b1a36394-4ada-4097-8db4-087bbbc207bb</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Algemeen</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">39993cff-b2e4-4625-8f4e-3252b6c4c647</TermId>
+        </TermInfo>
+      </Terms>
+    </hf5bb95e9b6b45da8c25870f21700653>
+    <Document_x0020_Status xmlns="21d30a20-6695-4c0a-abce-685f7bb7356c">Definitief</Document_x0020_Status>
+    <daac260c131546dfaa2fdf09ddb07211 xmlns="21d30a20-6695-4c0a-abce-685f7bb7356c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Documentatie</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">958b0ba0-6c3a-4135-bddf-eca94b8fffbd</TermId>
+        </TermInfo>
+      </Terms>
+    </daac260c131546dfaa2fdf09ddb07211>
+    <Jaar xmlns="21d30a20-6695-4c0a-abce-685f7bb7356c">
+      <Value xmlns="21d30a20-6695-4c0a-abce-685f7bb7356c">2017</Value>
+    </Jaar>
+    <TaxCatchAll xmlns="21d30a20-6695-4c0a-abce-685f7bb7356c">
+      <Value>3</Value>
+      <Value>44</Value>
+      <Value>1</Value>
+      <Value>28</Value>
+    </TaxCatchAll>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Haak IT" ma:contentTypeID="0x01010032F31CE91B6A6746A075E9258667BEC706004C37AB77B535FD4E9E67498B39409EFD" ma:contentTypeVersion="21" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="2fee68042613c1bc154ce7293d12c949">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="21d30a20-6695-4c0a-abce-685f7bb7356c" xmlns:ns3="7d154cc5-d9e0-4e8f-bb8b-bab47b67bda0" xmlns:ns4="2b27f2f4-c043-4d62-9bf8-d84d185e8fd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a94cc405fde27fd10ade4c8fd72d8e4f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="21d30a20-6695-4c0a-abce-685f7bb7356c"/>
@@ -4277,79 +4465,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <TaxKeywordTaxHTField xmlns="21d30a20-6695-4c0a-abce-685f7bb7356c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <lc9927c322dd484da9a3b8553002827f xmlns="21d30a20-6695-4c0a-abce-685f7bb7356c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Mediacollege Amsterdam</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">14d3bb20-eef4-4296-8a9a-db1598a3da7e</TermId>
-        </TermInfo>
-      </Terms>
-    </lc9927c322dd484da9a3b8553002827f>
-    <hf5bb95e9b6b45da8c25870f21700653 xmlns="21d30a20-6695-4c0a-abce-685f7bb7356c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Software</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b1a36394-4ada-4097-8db4-087bbbc207bb</TermId>
-        </TermInfo>
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Algemeen</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">39993cff-b2e4-4625-8f4e-3252b6c4c647</TermId>
-        </TermInfo>
-      </Terms>
-    </hf5bb95e9b6b45da8c25870f21700653>
-    <Document_x0020_Status xmlns="21d30a20-6695-4c0a-abce-685f7bb7356c">Definitief</Document_x0020_Status>
-    <daac260c131546dfaa2fdf09ddb07211 xmlns="21d30a20-6695-4c0a-abce-685f7bb7356c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Documentatie</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">958b0ba0-6c3a-4135-bddf-eca94b8fffbd</TermId>
-        </TermInfo>
-      </Terms>
-    </daac260c131546dfaa2fdf09ddb07211>
-    <Jaar xmlns="21d30a20-6695-4c0a-abce-685f7bb7356c">
-      <Value xmlns="21d30a20-6695-4c0a-abce-685f7bb7356c">2017</Value>
-    </Jaar>
-    <TaxCatchAll xmlns="21d30a20-6695-4c0a-abce-685f7bb7356c">
-      <Value>3</Value>
-      <Value>44</Value>
-      <Value>1</Value>
-      <Value>28</Value>
-    </TaxCatchAll>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E3E63ED-C97F-4855-9B49-FC029A2AC540}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C03569-CE29-484D-A7B3-7677CE0693FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="21d30a20-6695-4c0a-abce-685f7bb7356c"/>
-    <ds:schemaRef ds:uri="7d154cc5-d9e0-4e8f-bb8b-bab47b67bda0"/>
-    <ds:schemaRef ds:uri="2b27f2f4-c043-4d62-9bf8-d84d185e8fd6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4373,9 +4492,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C03569-CE29-484D-A7B3-7677CE0693FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E3E63ED-C97F-4855-9B49-FC029A2AC540}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="21d30a20-6695-4c0a-abce-685f7bb7356c"/>
+    <ds:schemaRef ds:uri="7d154cc5-d9e0-4e8f-bb8b-bab47b67bda0"/>
+    <ds:schemaRef ds:uri="2b27f2f4-c043-4d62-9bf8-d84d185e8fd6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>